--- a/Dharish/Survey Genie/Survey data.xlsx
+++ b/Dharish/Survey Genie/Survey data.xlsx
@@ -332,12 +332,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -367,10 +373,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,7 +661,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +726,7 @@
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -761,7 +768,7 @@
         <f>A2</f>
         <v xml:space="preserve"> Work Environment  </v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="3" t="str">
         <f>B2</f>
         <v xml:space="preserve"> Physical Workspace </v>
       </c>
@@ -804,7 +811,7 @@
         <f t="shared" ref="A4:A5" si="0">A3</f>
         <v xml:space="preserve"> Work Environment  </v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -846,7 +853,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Work Environment  </v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="3" t="str">
         <f>B4</f>
         <v xml:space="preserve"> Tools and Resources</v>
       </c>
@@ -970,7 +977,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>A7</f>
         <v xml:space="preserve"> Job Role and Responsibilities </v>
       </c>
       <c r="B8" s="2" t="s">

--- a/Dharish/Survey Genie/Survey data.xlsx
+++ b/Dharish/Survey Genie/Survey data.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet3!$A$1:$M$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$M$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -373,11 +374,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,10 +662,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dharish/Survey Genie/Survey data.xlsx
+++ b/Dharish/Survey Genie/Survey data.xlsx
@@ -684,7 +684,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,15 +693,15 @@
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
       <c r="B2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -795,7 +795,7 @@
         <f>B2</f>
         <v xml:space="preserve"> Physical Workspace </v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -837,7 +837,7 @@
       <c r="B4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -880,7 +880,7 @@
         <f>B4</f>
         <v xml:space="preserve"> Tools and Resources</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -918,10 +918,10 @@
       <c r="A6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -960,11 +960,11 @@
         <f t="shared" ref="A7:A9" si="1">A6</f>
         <v xml:space="preserve"> Job Role and Responsibilities </v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="3" t="str">
         <f>B6</f>
         <v xml:space="preserve"> Clarity and Understanding </v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1003,10 +1003,10 @@
         <f>A7</f>
         <v xml:space="preserve"> Job Role and Responsibilities </v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1045,11 +1045,11 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> Job Role and Responsibilities </v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="3" t="str">
         <f>B8</f>
         <v xml:space="preserve"> Workload          </v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="2" t="s">

--- a/Dharish/Survey Genie/Survey data.xlsx
+++ b/Dharish/Survey Genie/Survey data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="95">
   <si>
     <t xml:space="preserve"> Category          </t>
   </si>
@@ -319,7 +319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +331,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -377,15 +384,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,17 +672,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -685,17 +787,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="85.5703125" customWidth="1"/>
+    <col min="3" max="3" width="68.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -749,828 +852,834 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="K4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="K5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="K7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="I8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="K8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="5" t="s">
+      <c r="I9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="5" t="s">
+      <c r="K9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="I10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="5" t="s">
+      <c r="K10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="I11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="5" t="s">
+      <c r="K11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="I12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="5" t="s">
+      <c r="K12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="G13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="5" t="s">
+      <c r="I13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="5" t="s">
+      <c r="K13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="5" t="s">
+      <c r="I14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="5" t="s">
+      <c r="K14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="5" t="s">
+      <c r="I15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="5" t="s">
+      <c r="K15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="5" t="s">
+      <c r="I16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="5" t="s">
+      <c r="K16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="G17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="5" t="s">
+      <c r="I17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="5" t="s">
+      <c r="K17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="I18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="5" t="s">
+      <c r="K18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="E19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="G19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="5" t="s">
+      <c r="I19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="5" t="s">
+      <c r="K19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="G20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="5" t="s">
+      <c r="I20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="5" t="s">
+      <c r="K20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="E21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="G21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="5" t="s">
+      <c r="I21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="5" t="s">
+      <c r="K21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M21"/>
+  <autoFilter ref="A1:M21">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Job Role and Responsibilities"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Dharish/Survey Genie/Survey data.xlsx
+++ b/Dharish/Survey Genie/Survey data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="8160" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20430" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -787,11 +787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -893,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -934,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -975,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1262,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1303,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1344,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1385,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1426,7 +1425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1467,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1508,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1590,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -1673,13 +1672,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M21">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Job Role and Responsibilities"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M21"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
